--- a/Proyectos/01 Crea Producciones/Documento/Modelo Base Usuarios.xlsx
+++ b/Proyectos/01 Crea Producciones/Documento/Modelo Base Usuarios.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>ID</t>
   </si>
@@ -42,6 +42,21 @@
   </si>
   <si>
     <t>INSTITUCIÓN</t>
+  </si>
+  <si>
+    <t>TELEFONO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIRECCIÓN </t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO</t>
+  </si>
+  <si>
+    <t>PROVINCIA</t>
+  </si>
+  <si>
+    <t>DISTRITO</t>
   </si>
 </sst>
 </file>
@@ -79,7 +94,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -102,11 +117,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -126,6 +152,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G44"/>
+  <dimension ref="B3:L44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -420,9 +450,13 @@
     <col min="5" max="5" width="15.77734375" style="2" customWidth="1"/>
     <col min="6" max="6" width="18.5546875" style="2" customWidth="1"/>
     <col min="7" max="7" width="45.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" customWidth="1"/>
+    <col min="9" max="9" width="34.44140625" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -441,8 +475,23 @@
       <c r="G3" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="5">
         <v>1</v>
       </c>
@@ -451,8 +500,13 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
         <v>2</v>
       </c>
@@ -461,8 +515,13 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
         <v>3</v>
       </c>
@@ -471,8 +530,13 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>4</v>
       </c>
@@ -481,8 +545,13 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
         <v>5</v>
       </c>
@@ -491,8 +560,13 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <v>6</v>
       </c>
@@ -501,8 +575,13 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
         <v>7</v>
       </c>
@@ -511,8 +590,13 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
         <v>8</v>
       </c>
@@ -521,8 +605,13 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
         <v>9</v>
       </c>
@@ -531,8 +620,13 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="5">
         <v>10</v>
       </c>
@@ -541,8 +635,13 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="5">
         <v>11</v>
       </c>
@@ -551,8 +650,13 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
         <v>12</v>
       </c>
@@ -561,8 +665,13 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
         <v>13</v>
       </c>
@@ -571,8 +680,13 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
         <v>14</v>
       </c>
@@ -581,8 +695,13 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
         <v>15</v>
       </c>
@@ -591,8 +710,13 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <v>16</v>
       </c>
@@ -601,8 +725,13 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
         <v>17</v>
       </c>
@@ -611,8 +740,13 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
         <v>18</v>
       </c>
@@ -621,8 +755,13 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="5">
         <v>19</v>
       </c>
@@ -631,8 +770,13 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" s="5">
         <v>20</v>
       </c>
@@ -641,8 +785,13 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B24" s="5">
         <v>21</v>
       </c>
@@ -651,8 +800,13 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B25" s="5">
         <v>22</v>
       </c>
@@ -661,8 +815,13 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B26" s="5">
         <v>23</v>
       </c>
@@ -671,8 +830,13 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B27" s="5">
         <v>24</v>
       </c>
@@ -681,8 +845,13 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B28" s="5">
         <v>25</v>
       </c>
@@ -691,8 +860,13 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B29" s="5">
         <v>26</v>
       </c>
@@ -701,8 +875,13 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B30" s="5">
         <v>27</v>
       </c>
@@ -711,8 +890,13 @@
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B31" s="5">
         <v>28</v>
       </c>
@@ -721,8 +905,13 @@
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B32" s="5">
         <v>29</v>
       </c>
@@ -731,8 +920,13 @@
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B33" s="5">
         <v>30</v>
       </c>
@@ -741,8 +935,13 @@
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B34" s="5">
         <v>31</v>
       </c>
@@ -751,8 +950,13 @@
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B35" s="5">
         <v>32</v>
       </c>
@@ -761,8 +965,13 @@
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B36" s="5">
         <v>33</v>
       </c>
@@ -771,8 +980,13 @@
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="5">
         <v>34</v>
       </c>
@@ -781,8 +995,13 @@
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B38" s="5">
         <v>35</v>
       </c>
@@ -791,8 +1010,13 @@
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B39" s="5">
         <v>36</v>
       </c>
@@ -801,8 +1025,13 @@
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B40" s="5">
         <v>37</v>
       </c>
@@ -811,8 +1040,13 @@
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B41" s="5">
         <v>38</v>
       </c>
@@ -821,8 +1055,13 @@
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B42" s="5">
         <v>39</v>
       </c>
@@ -831,8 +1070,13 @@
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B43" s="5">
         <v>40</v>
       </c>
@@ -841,8 +1085,13 @@
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B44" s="5">
         <v>41</v>
       </c>
@@ -851,6 +1100,11 @@
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
